--- a/가디언 테일즈/2. Excel/가디언테일즈_데이터테이블_0104_조성훈.xlsx
+++ b/가디언 테일즈/2. Excel/가디언테일즈_데이터테이블_0104_조성훈.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\기획\가디언 테일즈\2. Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Atents\Documents\조성훈\GameDesign\가디언 테일즈\2. Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC536AB-B939-4E65-B8C6-82A4F3B1F227}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{48B40599-F870-4F97-B5E3-E7BBFD9B85A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="정수화작업" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="카드DB" sheetId="2" r:id="rId3"/>
     <sheet name="아이템DB" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="423">
   <si>
     <t>한손검</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1703,13 +1702,29 @@
   </si>
   <si>
     <t>그린 티켓 제조업자의 카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>린</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미래기사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>베로니카</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>녹시아</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2072,7 +2087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3DC850-373E-402E-BBD6-22A438558BEA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4992,11 +5007,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2741907-79BA-4A9C-B40F-9D4C429207C8}">
-  <dimension ref="A1:H74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E83" sqref="E83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6705,6 +6720,50 @@
         <v>416</v>
       </c>
     </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>11073</v>
+      </c>
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="H75" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>11074</v>
+      </c>
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="H76" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>11075</v>
+      </c>
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="H77" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>11076</v>
+      </c>
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="H78" t="s">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6713,10 +6772,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82D8908-050E-480E-9820-DC7559857F38}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
@@ -7484,7 +7543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{058B4C32-57D3-4EDE-8856-14237419E284}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
